--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1571015.550409034</v>
+        <v>-1573591.239378587</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12610011.71276485</v>
+        <v>12574568.46673314</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14742507.84358746</v>
+        <v>14756814.21519036</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>162.6828958164097</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>344.9076181407277</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,10 +710,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.4029629478798</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>214.9648145964523</v>
       </c>
     </row>
     <row r="5">
@@ -899,13 +899,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>117.010992852761</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>135.9120781262769</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1054,7 +1054,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1066,10 +1066,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>97.50256666184468</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>11.1681891533419</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>325.8448859800885</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>97.32228826427246</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,16 +1187,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>58.64025828379309</v>
       </c>
       <c r="I10" t="n">
-        <v>14.22746565719299</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1345,13 +1345,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>9.795251606877846</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012035</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,22 +1768,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>92.58181139165903</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>89.4565912879854</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>111.3341376326234</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>148.8966545308544</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,7 +2375,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2482,19 +2482,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>11.56087338713365</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>124.330825526173</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3190,7 +3190,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.330825526173</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
@@ -3199,7 +3199,7 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002295</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3664,10 +3664,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H46" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1938.90602284268</v>
+        <v>1144.044138553435</v>
       </c>
       <c r="C2" t="n">
-        <v>1569.943505902268</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="D2" t="n">
-        <v>1211.677807295518</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="E2" t="n">
-        <v>825.8895546972735</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F2" t="n">
-        <v>414.903649907666</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218339</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176916</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2325.505862906802</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2325.505862906802</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2325.505862906802</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635988</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686066</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064742</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080121</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986295</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>696.3149393776461</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="C4" t="n">
-        <v>527.3787564497392</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D4" t="n">
-        <v>527.3787564497392</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E4" t="n">
-        <v>379.4656628673461</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F4" t="n">
-        <v>232.5757153694357</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>471.3317757503524</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>638.7642570495502</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>810.0730940793977</v>
+        <v>1172.603585224601</v>
       </c>
       <c r="O4" t="n">
-        <v>947.9914432975875</v>
+        <v>1471.933184145014</v>
       </c>
       <c r="P4" t="n">
-        <v>1055.037596261258</v>
+        <v>1704.540684578674</v>
       </c>
       <c r="Q4" t="n">
-        <v>1132.647892413773</v>
+        <v>1717.461451937215</v>
       </c>
       <c r="R4" t="n">
-        <v>1132.647892413773</v>
+        <v>1627.630994694743</v>
       </c>
       <c r="S4" t="n">
-        <v>1132.647892413773</v>
+        <v>1435.945110521569</v>
       </c>
       <c r="T4" t="n">
-        <v>1132.647892413773</v>
+        <v>1214.178495091095</v>
       </c>
       <c r="U4" t="n">
-        <v>1132.647892413773</v>
+        <v>925.0756282167384</v>
       </c>
       <c r="V4" t="n">
-        <v>877.9634042078858</v>
+        <v>670.3911400108516</v>
       </c>
       <c r="W4" t="n">
-        <v>877.9634042078858</v>
+        <v>380.9739699738909</v>
       </c>
       <c r="X4" t="n">
-        <v>877.9634042078858</v>
+        <v>380.9739699738909</v>
       </c>
       <c r="Y4" t="n">
-        <v>877.9634042078858</v>
+        <v>163.8377936138381</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1659.057359339775</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C5" t="n">
-        <v>1290.094842399363</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D5" t="n">
-        <v>1171.901920325867</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>786.1136677276232</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993394</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3119.628073993394</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2788.565186649823</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W5" t="n">
-        <v>2435.796531379709</v>
+        <v>2746.967338392416</v>
       </c>
       <c r="X5" t="n">
-        <v>2435.796531379709</v>
+        <v>2373.501580131336</v>
       </c>
       <c r="Y5" t="n">
-        <v>2045.657199403897</v>
+        <v>2373.501580131336</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218343</v>
@@ -4647,25 +4647,25 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680.3679798527295</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="C7" t="n">
-        <v>511.4317969248226</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124869</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218343</v>
@@ -4726,16 +4726,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U7" t="n">
-        <v>1638.191681214137</v>
+        <v>1517.210034342976</v>
       </c>
       <c r="V7" t="n">
-        <v>1383.50719300825</v>
+        <v>1517.210034342976</v>
       </c>
       <c r="W7" t="n">
-        <v>1094.090022971289</v>
+        <v>1227.792864306016</v>
       </c>
       <c r="X7" t="n">
-        <v>1082.809023826499</v>
+        <v>1227.792864306016</v>
       </c>
       <c r="Y7" t="n">
-        <v>862.0164446829692</v>
+        <v>1007.000285162486</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4778,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>1418.660964416653</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D8" t="n">
         <v>1320.35562273557</v>
@@ -4802,10 +4802,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4826,28 +4826,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
         <v>3119.628073993394</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993394</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V8" t="n">
-        <v>3119.628073993394</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W8" t="n">
-        <v>2766.85941872328</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X8" t="n">
-        <v>2766.85941872328</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y8" t="n">
-        <v>2376.720086747468</v>
+        <v>1418.660964416653</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,46 +4887,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>396.7094242895088</v>
+        <v>538.8965081646988</v>
       </c>
       <c r="C10" t="n">
-        <v>227.7732413616019</v>
+        <v>369.960325236792</v>
       </c>
       <c r="D10" t="n">
-        <v>227.7732413616019</v>
+        <v>369.960325236792</v>
       </c>
       <c r="E10" t="n">
-        <v>227.7732413616019</v>
+        <v>369.960325236792</v>
       </c>
       <c r="F10" t="n">
-        <v>80.88329386369151</v>
+        <v>223.0703777388816</v>
       </c>
       <c r="G10" t="n">
-        <v>80.88329386369151</v>
+        <v>223.0703777388816</v>
       </c>
       <c r="H10" t="n">
-        <v>80.88329386369151</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4963,16 +4963,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672848</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
         <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368017</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V10" t="n">
-        <v>1134.908724368017</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W10" t="n">
-        <v>845.4915543310562</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="X10" t="n">
-        <v>617.5020034330389</v>
+        <v>941.3375521384687</v>
       </c>
       <c r="Y10" t="n">
-        <v>396.7094242895088</v>
+        <v>720.5449729949386</v>
       </c>
     </row>
     <row r="11">
@@ -5018,70 +5018,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5112,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5124,22 +5124,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,10 +5173,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>734.6461798836032</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>565.7099969556963</v>
       </c>
       <c r="D13" t="n">
         <v>555.8158034133954</v>
@@ -5188,61 +5188,61 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T13" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U13" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V13" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>916.2946447138429</v>
       </c>
     </row>
     <row r="14">
@@ -5270,7 +5270,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5279,7 +5279,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5291,34 +5291,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>409.1360811687895</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>779.6143379232838</v>
+        <v>734.6461798836032</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232838</v>
+        <v>734.6461798836032</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>584.5295404712674</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>436.6164468888743</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038357</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797759</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U16" t="n">
-        <v>1954.146591037919</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V16" t="n">
-        <v>1699.462102832032</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W16" t="n">
-        <v>1410.044932795071</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X16" t="n">
-        <v>1182.055381897054</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y16" t="n">
-        <v>961.2628027535235</v>
+        <v>916.2946447138429</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5495,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,10 +5525,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>417.9651836029407</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="M18" t="n">
-        <v>1074.481071167373</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>719.5738700011939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>550.637687073287</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1894.106123115829</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1639.421634909942</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1350.004464872981</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1122.014913974964</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>901.2223348314336</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5969,16 +5969,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5987,10 +5987,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6069,16 +6069,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>564.5188827892232</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>414.4022433768874</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>414.4022433768874</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>414.4022433768874</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>247.2061440917674</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>105.4943129339655</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6221,16 +6221,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6242,7 +6242,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6458,22 +6458,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580114</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6686,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6838,13 +6838,13 @@
         <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6935,10 +6935,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7017,25 +7017,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,10 +7117,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7135,7 +7135,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,16 +7251,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942658</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7327,31 +7327,31 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382517</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931273</v>
@@ -7360,22 +7360,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7412,7 +7412,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245706</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2389.155899672379</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
         <v>411.2214559580113</v>
@@ -7570,7 +7570,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311323</v>
@@ -7588,7 +7588,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931273</v>
@@ -7600,16 +7600,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7646,10 +7646,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,16 +7722,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
         <v>680.0291294438176</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7825,7 +7825,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931274</v>
@@ -8140,22 +8140,22 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>25.20805284718477</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>8.176919404961737</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>220.0509458470709</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>66.01410751272573</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,7 +22601,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>1.622845311148476</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,28 +22750,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>3.619838755642506</v>
       </c>
     </row>
     <row r="5">
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>138.8202214113345</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016463</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,19 +23656,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>52.83923663127221</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>196.7278831012587</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>68.4978425493139</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>63.36835372228704</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,10 +24139,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>137.2878198583898</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>69.70496293143188</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-3.836930773104541e-13</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-3.836930773104541e-13</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1047227.073097682</v>
+        <v>1076909.480249148</v>
       </c>
     </row>
     <row r="3">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1284674.661742031</v>
+        <v>1284674.66174203</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1284674.661742031</v>
+        <v>1284674.66174203</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1284674.661742031</v>
+        <v>1284674.66174203</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1306559.554766517</v>
+        <v>1284674.66174203</v>
       </c>
     </row>
     <row r="12">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>116044.8438455267</v>
+        <v>118476.4986260252</v>
       </c>
       <c r="C2" t="n">
+        <v>143682.3097262497</v>
+      </c>
+      <c r="D2" t="n">
         <v>143682.3097262496</v>
       </c>
-      <c r="D2" t="n">
-        <v>143682.3097262497</v>
-      </c>
       <c r="E2" t="n">
-        <v>141250.6549457511</v>
+        <v>141250.6549457512</v>
       </c>
       <c r="F2" t="n">
         <v>141250.6549457511</v>
@@ -26329,25 +26329,25 @@
         <v>141250.6549457511</v>
       </c>
       <c r="H2" t="n">
+        <v>141250.6549457512</v>
+      </c>
+      <c r="I2" t="n">
         <v>141250.6549457511</v>
       </c>
-      <c r="I2" t="n">
-        <v>141250.6549457512</v>
-      </c>
       <c r="J2" t="n">
-        <v>141250.6549457512</v>
+        <v>141250.6549457511</v>
       </c>
       <c r="K2" t="n">
-        <v>143682.3097262494</v>
+        <v>141250.6549457511</v>
       </c>
       <c r="L2" t="n">
         <v>143682.3097262494</v>
       </c>
       <c r="M2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="N2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="O2" t="n">
         <v>143682.3097262496</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>1.469155386075727e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363189</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3415.825872823501</v>
+        <v>11234.60594742175</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820628</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820626</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26430,34 +26430,34 @@
         <v>14216.75207685505</v>
       </c>
       <c r="G4" t="n">
+        <v>14216.75207685507</v>
+      </c>
+      <c r="H4" t="n">
         <v>14216.75207685505</v>
       </c>
-      <c r="H4" t="n">
-        <v>14216.75207685507</v>
-      </c>
       <c r="I4" t="n">
-        <v>14216.75207685509</v>
+        <v>14216.7520768551</v>
       </c>
       <c r="J4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
-        <v>22207.61133994852</v>
+        <v>14216.75207685506</v>
       </c>
       <c r="L4" t="n">
-        <v>22207.61133994852</v>
+        <v>22207.61133994851</v>
       </c>
       <c r="M4" t="n">
-        <v>22207.61133994854</v>
+        <v>22207.61133994853</v>
       </c>
       <c r="N4" t="n">
-        <v>22207.61133994854</v>
+        <v>22207.61133994853</v>
       </c>
       <c r="O4" t="n">
         <v>22207.61133994852</v>
       </c>
       <c r="P4" t="n">
-        <v>22207.61133994852</v>
+        <v>22207.6113399485</v>
       </c>
     </row>
     <row r="5">
@@ -26494,7 +26494,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
         <v>103164.1158539154</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1324049.668316282</v>
+        <v>-1329796.8766261</v>
       </c>
       <c r="C6" t="n">
-        <v>-57655.4176833501</v>
+        <v>-57655.41768334995</v>
       </c>
       <c r="D6" t="n">
-        <v>-57655.41768334992</v>
+        <v>-57655.41768334998</v>
       </c>
       <c r="E6" t="n">
-        <v>-299501.0887623659</v>
+        <v>-299535.826687802</v>
       </c>
       <c r="F6" t="n">
-        <v>25911.37304498897</v>
+        <v>25876.6351195532</v>
       </c>
       <c r="G6" t="n">
-        <v>25911.37304498897</v>
+        <v>25876.63511955325</v>
       </c>
       <c r="H6" t="n">
-        <v>25911.37304498891</v>
+        <v>25876.63511955331</v>
       </c>
       <c r="I6" t="n">
-        <v>25911.37304498896</v>
+        <v>25876.63511955322</v>
       </c>
       <c r="J6" t="n">
-        <v>-191619.8293522884</v>
+        <v>-191654.5672777243</v>
       </c>
       <c r="K6" t="n">
-        <v>-1117.135461246435</v>
+        <v>25876.63511955323</v>
       </c>
       <c r="L6" t="n">
-        <v>18310.58253238548</v>
+        <v>-1117.135461246289</v>
       </c>
       <c r="M6" t="n">
-        <v>-66744.44540312601</v>
+        <v>-66744.44540312614</v>
       </c>
       <c r="N6" t="n">
+        <v>18310.58253238568</v>
+      </c>
+      <c r="O6" t="n">
+        <v>18310.58253238566</v>
+      </c>
+      <c r="P6" t="n">
         <v>18310.58253238576</v>
-      </c>
-      <c r="O6" t="n">
-        <v>18310.58253238571</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-1117.135461245998</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27619,13 +27619,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>237.6720487679219</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>213.3288905911361</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27786,10 +27786,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>188.7092715437682</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>214.5414662356953</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56.88895568339206</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>267.9506035067351</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27907,16 +27907,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>86.11475663052769</v>
       </c>
       <c r="I10" t="n">
-        <v>82.1249547526451</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28065,13 +28065,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28293,10 +28293,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="S13" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -28509,7 +28509,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29095,7 +29095,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
   </sheetData>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>481.4297026814652</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>370.9642309107746</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>305.1876769472509</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>465.2641870096811</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>403.8524967138027</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32494,7 +32494,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -32549,31 +32549,31 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>501.1621040024322</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,19 +32789,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -33020,25 +33020,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33184,7 +33184,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L29" t="n">
         <v>867.846407116256</v>
@@ -33260,16 +33260,16 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>502.5232631188761</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33439,10 +33439,10 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33497,10 +33497,10 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>249.1672590991333</v>
       </c>
       <c r="K33" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33509,19 +33509,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33655,7 +33655,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33737,13 +33737,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>433.9798411722591</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33898,7 +33898,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175675</v>
@@ -33916,7 +33916,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33971,19 +33971,19 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>265.5442652399247</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -34132,10 +34132,10 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M41" t="n">
         <v>965.6463440175675</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>268.5330199802463</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>577.7447198439388</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>198.2472821702631</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>108.127427236031</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>339.2956687594469</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>228.3679864663302</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>167.3462379728919</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096363</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>327.4227480353221</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>272.5107846304694</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>369.8203919190989</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36437,19 +36437,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36668,25 +36668,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36832,7 +36832,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>368.5488557045459</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37087,10 +37087,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="K33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,13 +37385,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>291.8458072502408</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,19 +37619,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>134.2025531565914</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,10 +37780,10 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>128.5512458942248</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K46" t="n">
         <v>288.6172359016746</v>
@@ -38190,10 +38190,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
